--- a/branches/hiv-test-date_fig-20/all-profiles.xlsx
+++ b/branches/hiv-test-date_fig-20/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12191" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13930" uniqueCount="1219">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:41:50+00:00</t>
+    <t>2023-02-10T06:42:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3777,6 +3777,21 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
+  </si>
+  <si>
+    <t>date-hiv-test-done</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/date-hiv-test-done</t>
+  </si>
+  <si>
+    <t>DateHIVTestDone</t>
+  </si>
+  <si>
+    <t>Date HIV Test Done</t>
+  </si>
+  <si>
+    <t>This profile is to record the Date when HIV was done for a patient</t>
   </si>
   <si>
     <t>transferring-facility-encounter</t>
@@ -3925,7 +3940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:B149"/>
+  <dimension ref="A2:B170"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5050,7 +5065,7 @@
         <v>31</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>759</v>
+        <v>994</v>
       </c>
     </row>
     <row r="147">
@@ -5058,7 +5073,7 @@
         <v>33</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>760</v>
+        <v>995</v>
       </c>
     </row>
     <row r="148">
@@ -5074,6 +5089,168 @@
         <v>37</v>
       </c>
       <c r="B149" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B170" t="s" s="2">
         <v>38</v>
       </c>
     </row>
@@ -5084,7 +5261,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK361"/>
+  <dimension ref="A1:AK412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -35369,14 +35546,14 @@
         <v>1209</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>759</v>
+        <v>994</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>759</v>
+        <v>994</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
-        <v>761</v>
+        <v>996</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" t="s" s="2">
@@ -35398,12 +35575,14 @@
         <v>78</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>762</v>
+        <v>997</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="O289" s="2"/>
+        <v>998</v>
+      </c>
+      <c r="O289" t="s" s="2">
+        <v>999</v>
+      </c>
       <c r="P289" s="2"/>
       <c r="Q289" t="s" s="2">
         <v>75</v>
@@ -35452,7 +35631,7 @@
         <v>75</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>759</v>
+        <v>994</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>76</v>
@@ -35472,10 +35651,10 @@
         <v>1209</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>764</v>
+        <v>1000</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>764</v>
+        <v>1000</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -35577,10 +35756,10 @@
         <v>1209</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>765</v>
+        <v>1001</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>765</v>
+        <v>1001</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -35680,10 +35859,10 @@
         <v>1209</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>766</v>
+        <v>1002</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>766</v>
+        <v>1002</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -35785,10 +35964,10 @@
         <v>1209</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>767</v>
+        <v>1003</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>767</v>
+        <v>1003</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -35890,10 +36069,10 @@
         <v>1209</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>768</v>
+        <v>1004</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>768</v>
+        <v>1004</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -35995,10 +36174,10 @@
         <v>1209</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>769</v>
+        <v>1005</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>769</v>
+        <v>1005</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -36100,10 +36279,10 @@
         <v>1209</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>770</v>
+        <v>1006</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>770</v>
+        <v>1006</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -36205,10 +36384,10 @@
         <v>1209</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>774</v>
+        <v>1007</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>774</v>
+        <v>1007</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -36312,10 +36491,10 @@
         <v>1209</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>775</v>
+        <v>1008</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>775</v>
+        <v>1008</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -36341,13 +36520,15 @@
         <v>138</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>776</v>
+        <v>1009</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>777</v>
+        <v>1010</v>
       </c>
       <c r="O298" s="2"/>
-      <c r="P298" s="2"/>
+      <c r="P298" t="s" s="2">
+        <v>1011</v>
+      </c>
       <c r="Q298" t="s" s="2">
         <v>75</v>
       </c>
@@ -36395,7 +36576,7 @@
         <v>75</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>775</v>
+        <v>1008</v>
       </c>
       <c r="AH298" t="s" s="2">
         <v>76</v>
@@ -36415,44 +36596,44 @@
         <v>1209</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>778</v>
+        <v>1012</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>778</v>
+        <v>1012</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
-        <v>75</v>
+        <v>1013</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H299" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I299" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J299" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K299" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>102</v>
+        <v>1014</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>779</v>
+        <v>1015</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="O299" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="P299" s="2"/>
+        <v>1016</v>
+      </c>
+      <c r="O299" s="2"/>
+      <c r="P299" t="s" s="2">
+        <v>1017</v>
+      </c>
       <c r="Q299" t="s" s="2">
         <v>75</v>
       </c>
@@ -36476,13 +36657,13 @@
         <v>75</v>
       </c>
       <c r="Y299" t="s" s="2">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="Z299" t="s" s="2">
-        <v>782</v>
+        <v>75</v>
       </c>
       <c r="AA299" t="s" s="2">
-        <v>783</v>
+        <v>75</v>
       </c>
       <c r="AB299" t="s" s="2">
         <v>75</v>
@@ -36500,13 +36681,13 @@
         <v>75</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>778</v>
+        <v>1012</v>
       </c>
       <c r="AH299" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI299" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ299" t="s" s="2">
         <v>75</v>
@@ -36520,14 +36701,14 @@
         <v>1209</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>784</v>
+        <v>1018</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>784</v>
+        <v>1018</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
-        <v>75</v>
+        <v>1019</v>
       </c>
       <c r="F300" s="2"/>
       <c r="G300" t="s" s="2">
@@ -36543,19 +36724,19 @@
         <v>75</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>280</v>
+        <v>1020</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>785</v>
+        <v>1021</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>786</v>
+        <v>1022</v>
       </c>
       <c r="O300" t="s" s="2">
-        <v>787</v>
+        <v>1023</v>
       </c>
       <c r="P300" s="2"/>
       <c r="Q300" t="s" s="2">
@@ -36605,7 +36786,7 @@
         <v>75</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>784</v>
+        <v>1018</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>76</v>
@@ -36625,10 +36806,10 @@
         <v>1209</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>788</v>
+        <v>1024</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>788</v>
+        <v>1024</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -36636,7 +36817,7 @@
       </c>
       <c r="F301" s="2"/>
       <c r="G301" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H301" t="s" s="2">
         <v>82</v>
@@ -36645,22 +36826,26 @@
         <v>75</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>150</v>
+        <v>1025</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O301" s="2"/>
-      <c r="P301" s="2"/>
+        <v>1026</v>
+      </c>
+      <c r="O301" t="s" s="2">
+        <v>1027</v>
+      </c>
+      <c r="P301" t="s" s="2">
+        <v>1028</v>
+      </c>
       <c r="Q301" t="s" s="2">
         <v>75</v>
       </c>
@@ -36669,7 +36854,7 @@
         <v>75</v>
       </c>
       <c r="T301" t="s" s="2">
-        <v>75</v>
+        <v>1029</v>
       </c>
       <c r="U301" t="s" s="2">
         <v>75</v>
@@ -36684,13 +36869,13 @@
         <v>75</v>
       </c>
       <c r="Y301" t="s" s="2">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="Z301" t="s" s="2">
-        <v>75</v>
+        <v>1030</v>
       </c>
       <c r="AA301" t="s" s="2">
-        <v>75</v>
+        <v>1031</v>
       </c>
       <c r="AB301" t="s" s="2">
         <v>75</v>
@@ -36708,10 +36893,10 @@
         <v>75</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>152</v>
+        <v>1024</v>
       </c>
       <c r="AH301" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI301" t="s" s="2">
         <v>82</v>
@@ -36720,7 +36905,7 @@
         <v>75</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="302">
@@ -36728,14 +36913,14 @@
         <v>1209</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>789</v>
+        <v>1032</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>789</v>
+        <v>1032</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="F302" s="2"/>
       <c r="G302" t="s" s="2">
@@ -36754,18 +36939,20 @@
         <v>75</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>127</v>
+        <v>1033</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>155</v>
+        <v>1034</v>
       </c>
       <c r="O302" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P302" s="2"/>
+        <v>1035</v>
+      </c>
+      <c r="P302" t="s" s="2">
+        <v>1036</v>
+      </c>
       <c r="Q302" t="s" s="2">
         <v>75</v>
       </c>
@@ -36789,13 +36976,13 @@
         <v>75</v>
       </c>
       <c r="Y302" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="Z302" t="s" s="2">
-        <v>75</v>
+        <v>1037</v>
       </c>
       <c r="AA302" t="s" s="2">
-        <v>75</v>
+        <v>1038</v>
       </c>
       <c r="AB302" t="s" s="2">
         <v>75</v>
@@ -36813,7 +37000,7 @@
         <v>75</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>159</v>
+        <v>1032</v>
       </c>
       <c r="AH302" t="s" s="2">
         <v>76</v>
@@ -36825,7 +37012,7 @@
         <v>75</v>
       </c>
       <c r="AK302" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="303">
@@ -36833,45 +37020,45 @@
         <v>1209</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>790</v>
+        <v>1039</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>790</v>
+        <v>1039</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
-        <v>287</v>
+        <v>1040</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H303" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I303" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J303" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K303" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>288</v>
+        <v>1041</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>289</v>
+        <v>1042</v>
       </c>
       <c r="O303" t="s" s="2">
-        <v>129</v>
+        <v>1043</v>
       </c>
       <c r="P303" t="s" s="2">
-        <v>135</v>
+        <v>1044</v>
       </c>
       <c r="Q303" t="s" s="2">
         <v>75</v>
@@ -36896,13 +37083,11 @@
         <v>75</v>
       </c>
       <c r="Y303" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z303" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="Z303" s="2"/>
       <c r="AA303" t="s" s="2">
-        <v>75</v>
+        <v>1045</v>
       </c>
       <c r="AB303" t="s" s="2">
         <v>75</v>
@@ -36920,19 +37105,19 @@
         <v>75</v>
       </c>
       <c r="AG303" t="s" s="2">
-        <v>290</v>
+        <v>1039</v>
       </c>
       <c r="AH303" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI303" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ303" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK303" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="304">
@@ -36940,10 +37125,10 @@
         <v>1209</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>791</v>
+        <v>1046</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>791</v>
+        <v>1046</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -36963,19 +37148,23 @@
         <v>75</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>102</v>
+        <v>1047</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>779</v>
+        <v>1048</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="O304" s="2"/>
-      <c r="P304" s="2"/>
+        <v>1049</v>
+      </c>
+      <c r="O304" t="s" s="2">
+        <v>1050</v>
+      </c>
+      <c r="P304" t="s" s="2">
+        <v>1051</v>
+      </c>
       <c r="Q304" t="s" s="2">
         <v>75</v>
       </c>
@@ -36999,13 +37188,13 @@
         <v>75</v>
       </c>
       <c r="Y304" t="s" s="2">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="Z304" t="s" s="2">
-        <v>782</v>
+        <v>75</v>
       </c>
       <c r="AA304" t="s" s="2">
-        <v>783</v>
+        <v>75</v>
       </c>
       <c r="AB304" t="s" s="2">
         <v>75</v>
@@ -37023,10 +37212,10 @@
         <v>75</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>791</v>
+        <v>1046</v>
       </c>
       <c r="AH304" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI304" t="s" s="2">
         <v>82</v>
@@ -37043,10 +37232,10 @@
         <v>1209</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>792</v>
+        <v>1052</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>792</v>
+        <v>1052</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -37054,10 +37243,10 @@
       </c>
       <c r="F305" s="2"/>
       <c r="G305" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H305" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I305" t="s" s="2">
         <v>75</v>
@@ -37066,18 +37255,20 @@
         <v>75</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>199</v>
+        <v>321</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>793</v>
+        <v>1053</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="O305" s="2"/>
+        <v>1054</v>
+      </c>
+      <c r="O305" t="s" s="2">
+        <v>1055</v>
+      </c>
       <c r="P305" s="2"/>
       <c r="Q305" t="s" s="2">
         <v>75</v>
@@ -37126,13 +37317,13 @@
         <v>75</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>792</v>
+        <v>1052</v>
       </c>
       <c r="AH305" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI305" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ305" t="s" s="2">
         <v>75</v>
@@ -37146,14 +37337,14 @@
         <v>1209</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>795</v>
+        <v>1056</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>795</v>
+        <v>1056</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
-        <v>75</v>
+        <v>1057</v>
       </c>
       <c r="F306" s="2"/>
       <c r="G306" t="s" s="2">
@@ -37172,16 +37363,20 @@
         <v>83</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>796</v>
+        <v>254</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>797</v>
+        <v>1058</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>798</v>
-      </c>
-      <c r="O306" s="2"/>
-      <c r="P306" s="2"/>
+        <v>1059</v>
+      </c>
+      <c r="O306" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="P306" t="s" s="2">
+        <v>1061</v>
+      </c>
       <c r="Q306" t="s" s="2">
         <v>75</v>
       </c>
@@ -37205,13 +37400,13 @@
         <v>75</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="Z306" t="s" s="2">
-        <v>799</v>
+        <v>75</v>
       </c>
       <c r="AA306" t="s" s="2">
-        <v>800</v>
+        <v>75</v>
       </c>
       <c r="AB306" t="s" s="2">
         <v>75</v>
@@ -37229,10 +37424,10 @@
         <v>75</v>
       </c>
       <c r="AG306" t="s" s="2">
-        <v>795</v>
+        <v>1056</v>
       </c>
       <c r="AH306" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI306" t="s" s="2">
         <v>82</v>
@@ -37249,21 +37444,21 @@
         <v>1209</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>801</v>
+        <v>1062</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>801</v>
+        <v>1062</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
-        <v>75</v>
+        <v>1063</v>
       </c>
       <c r="F307" s="2"/>
       <c r="G307" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H307" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I307" t="s" s="2">
         <v>75</v>
@@ -37272,19 +37467,23 @@
         <v>75</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>802</v>
+        <v>1064</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="O307" s="2"/>
-      <c r="P307" s="2"/>
+        <v>1065</v>
+      </c>
+      <c r="O307" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="P307" t="s" s="2">
+        <v>1067</v>
+      </c>
       <c r="Q307" t="s" s="2">
         <v>75</v>
       </c>
@@ -37320,25 +37519,23 @@
         <v>75</v>
       </c>
       <c r="AC307" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD307" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="AD307" s="2"/>
       <c r="AE307" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF307" t="s" s="2">
-        <v>75</v>
+        <v>1069</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>801</v>
+        <v>1062</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI307" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ307" t="s" s="2">
         <v>75</v>
@@ -37352,18 +37549,20 @@
         <v>1209</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>804</v>
+        <v>1070</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>804</v>
-      </c>
-      <c r="D308" s="2"/>
+        <v>1062</v>
+      </c>
+      <c r="D308" t="s" s="2">
+        <v>1071</v>
+      </c>
       <c r="E308" t="s" s="2">
-        <v>75</v>
+        <v>1063</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H308" t="s" s="2">
         <v>82</v>
@@ -37375,19 +37574,23 @@
         <v>75</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>150</v>
+        <v>1064</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O308" s="2"/>
-      <c r="P308" s="2"/>
+        <v>1065</v>
+      </c>
+      <c r="O308" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="P308" t="s" s="2">
+        <v>1067</v>
+      </c>
       <c r="Q308" t="s" s="2">
         <v>75</v>
       </c>
@@ -37435,7 +37638,7 @@
         <v>75</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>152</v>
+        <v>1062</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>76</v>
@@ -37447,7 +37650,7 @@
         <v>75</v>
       </c>
       <c r="AK308" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="309">
@@ -37455,21 +37658,21 @@
         <v>1209</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>805</v>
+        <v>1072</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>805</v>
+        <v>1072</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="F309" s="2"/>
       <c r="G309" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H309" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I309" t="s" s="2">
         <v>75</v>
@@ -37478,19 +37681,19 @@
         <v>75</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>126</v>
+        <v>1073</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>127</v>
+        <v>1074</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>155</v>
+        <v>1075</v>
       </c>
       <c r="O309" t="s" s="2">
-        <v>129</v>
+        <v>1076</v>
       </c>
       <c r="P309" s="2"/>
       <c r="Q309" t="s" s="2">
@@ -37540,19 +37743,19 @@
         <v>75</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>159</v>
+        <v>1072</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI309" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ309" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK309" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="310">
@@ -37560,14 +37763,14 @@
         <v>1209</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>806</v>
+        <v>1077</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>806</v>
+        <v>1077</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="F310" s="2"/>
       <c r="G310" t="s" s="2">
@@ -37580,25 +37783,23 @@
         <v>75</v>
       </c>
       <c r="J310" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K310" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>126</v>
+        <v>1078</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>288</v>
+        <v>1079</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O310" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="O310" s="2"/>
       <c r="P310" t="s" s="2">
-        <v>135</v>
+        <v>1081</v>
       </c>
       <c r="Q310" t="s" s="2">
         <v>75</v>
@@ -37647,7 +37848,7 @@
         <v>75</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>290</v>
+        <v>1077</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>76</v>
@@ -37659,7 +37860,7 @@
         <v>75</v>
       </c>
       <c r="AK310" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="311">
@@ -37667,10 +37868,10 @@
         <v>1209</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>807</v>
+        <v>1082</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>807</v>
+        <v>1082</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -37678,7 +37879,7 @@
       </c>
       <c r="F311" s="2"/>
       <c r="G311" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H311" t="s" s="2">
         <v>82</v>
@@ -37690,19 +37891,23 @@
         <v>75</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>796</v>
+        <v>1196</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>808</v>
+        <v>1084</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>809</v>
-      </c>
-      <c r="O311" s="2"/>
-      <c r="P311" s="2"/>
+        <v>1085</v>
+      </c>
+      <c r="O311" t="s" s="2">
+        <v>1086</v>
+      </c>
+      <c r="P311" t="s" s="2">
+        <v>1087</v>
+      </c>
       <c r="Q311" t="s" s="2">
         <v>75</v>
       </c>
@@ -37726,13 +37931,13 @@
         <v>75</v>
       </c>
       <c r="Y311" t="s" s="2">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="Z311" t="s" s="2">
-        <v>799</v>
+        <v>75</v>
       </c>
       <c r="AA311" t="s" s="2">
-        <v>800</v>
+        <v>75</v>
       </c>
       <c r="AB311" t="s" s="2">
         <v>75</v>
@@ -37750,16 +37955,16 @@
         <v>75</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>807</v>
+        <v>1082</v>
       </c>
       <c r="AH311" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI311" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ311" t="s" s="2">
-        <v>75</v>
+        <v>1088</v>
       </c>
       <c r="AK311" t="s" s="2">
         <v>94</v>
@@ -37770,10 +37975,10 @@
         <v>1209</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>810</v>
+        <v>1091</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>810</v>
+        <v>1091</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -37781,7 +37986,7 @@
       </c>
       <c r="F312" s="2"/>
       <c r="G312" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H312" t="s" s="2">
         <v>82</v>
@@ -37796,16 +38001,20 @@
         <v>75</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>811</v>
+        <v>1092</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="O312" s="2"/>
-      <c r="P312" s="2"/>
+        <v>1093</v>
+      </c>
+      <c r="O312" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="P312" t="s" s="2">
+        <v>1095</v>
+      </c>
       <c r="Q312" t="s" s="2">
         <v>75</v>
       </c>
@@ -37829,13 +38038,13 @@
         <v>75</v>
       </c>
       <c r="Y312" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Z312" t="s" s="2">
-        <v>75</v>
+        <v>1096</v>
       </c>
       <c r="AA312" t="s" s="2">
-        <v>75</v>
+        <v>1097</v>
       </c>
       <c r="AB312" t="s" s="2">
         <v>75</v>
@@ -37853,16 +38062,16 @@
         <v>75</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>810</v>
+        <v>1091</v>
       </c>
       <c r="AH312" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI312" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ312" t="s" s="2">
-        <v>75</v>
+        <v>1098</v>
       </c>
       <c r="AK312" t="s" s="2">
         <v>94</v>
@@ -37873,14 +38082,14 @@
         <v>1209</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>813</v>
+        <v>1099</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>813</v>
+        <v>1099</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
-        <v>75</v>
+        <v>1100</v>
       </c>
       <c r="F313" s="2"/>
       <c r="G313" t="s" s="2">
@@ -37896,21 +38105,23 @@
         <v>75</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L313" t="s" s="2">
         <v>172</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>814</v>
+        <v>1101</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>815</v>
+        <v>1102</v>
       </c>
       <c r="O313" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="P313" s="2"/>
+        <v>1103</v>
+      </c>
+      <c r="P313" t="s" s="2">
+        <v>1104</v>
+      </c>
       <c r="Q313" t="s" s="2">
         <v>75</v>
       </c>
@@ -37934,13 +38145,13 @@
         <v>75</v>
       </c>
       <c r="Y313" t="s" s="2">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="Z313" t="s" s="2">
-        <v>817</v>
+        <v>1204</v>
       </c>
       <c r="AA313" t="s" s="2">
-        <v>818</v>
+        <v>1205</v>
       </c>
       <c r="AB313" t="s" s="2">
         <v>75</v>
@@ -37958,7 +38169,7 @@
         <v>75</v>
       </c>
       <c r="AG313" t="s" s="2">
-        <v>813</v>
+        <v>1099</v>
       </c>
       <c r="AH313" t="s" s="2">
         <v>76</v>
@@ -37978,10 +38189,10 @@
         <v>1209</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>819</v>
+        <v>1106</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>819</v>
+        <v>1106</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -37992,7 +38203,7 @@
         <v>76</v>
       </c>
       <c r="H314" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I314" t="s" s="2">
         <v>75</v>
@@ -38001,19 +38212,23 @@
         <v>75</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>820</v>
+        <v>1107</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="O314" s="2"/>
-      <c r="P314" s="2"/>
+        <v>1108</v>
+      </c>
+      <c r="O314" t="s" s="2">
+        <v>1109</v>
+      </c>
+      <c r="P314" t="s" s="2">
+        <v>1110</v>
+      </c>
       <c r="Q314" t="s" s="2">
         <v>75</v>
       </c>
@@ -38037,13 +38252,13 @@
         <v>75</v>
       </c>
       <c r="Y314" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Z314" t="s" s="2">
-        <v>822</v>
+        <v>75</v>
       </c>
       <c r="AA314" t="s" s="2">
-        <v>823</v>
+        <v>75</v>
       </c>
       <c r="AB314" t="s" s="2">
         <v>75</v>
@@ -38061,13 +38276,13 @@
         <v>75</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>819</v>
+        <v>1106</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI314" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ314" t="s" s="2">
         <v>75</v>
@@ -38081,10 +38296,10 @@
         <v>1209</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>824</v>
+        <v>1111</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>824</v>
+        <v>1111</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -38110,12 +38325,14 @@
         <v>172</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>825</v>
+        <v>1112</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="O315" s="2"/>
+        <v>1113</v>
+      </c>
+      <c r="O315" t="s" s="2">
+        <v>1114</v>
+      </c>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
         <v>75</v>
@@ -38143,10 +38360,10 @@
         <v>244</v>
       </c>
       <c r="Z315" t="s" s="2">
-        <v>826</v>
+        <v>245</v>
       </c>
       <c r="AA315" t="s" s="2">
-        <v>827</v>
+        <v>246</v>
       </c>
       <c r="AB315" t="s" s="2">
         <v>75</v>
@@ -38164,7 +38381,7 @@
         <v>75</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>824</v>
+        <v>1111</v>
       </c>
       <c r="AH315" t="s" s="2">
         <v>76</v>
@@ -38184,14 +38401,14 @@
         <v>1209</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>828</v>
+        <v>1115</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>828</v>
+        <v>1115</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
-        <v>248</v>
+        <v>75</v>
       </c>
       <c r="F316" s="2"/>
       <c r="G316" t="s" s="2">
@@ -38207,21 +38424,23 @@
         <v>75</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>829</v>
+        <v>1116</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>830</v>
+        <v>1117</v>
       </c>
       <c r="O316" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="P316" s="2"/>
+        <v>1118</v>
+      </c>
+      <c r="P316" t="s" s="2">
+        <v>1119</v>
+      </c>
       <c r="Q316" t="s" s="2">
         <v>75</v>
       </c>
@@ -38245,13 +38464,13 @@
         <v>75</v>
       </c>
       <c r="Y316" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="Z316" t="s" s="2">
-        <v>75</v>
+        <v>1120</v>
       </c>
       <c r="AA316" t="s" s="2">
-        <v>75</v>
+        <v>1121</v>
       </c>
       <c r="AB316" t="s" s="2">
         <v>75</v>
@@ -38269,7 +38488,7 @@
         <v>75</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>828</v>
+        <v>1115</v>
       </c>
       <c r="AH316" t="s" s="2">
         <v>76</v>
@@ -38289,10 +38508,10 @@
         <v>1209</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>832</v>
+        <v>1122</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>832</v>
+        <v>1122</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -38303,7 +38522,7 @@
         <v>76</v>
       </c>
       <c r="H317" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I317" t="s" s="2">
         <v>75</v>
@@ -38312,18 +38531,20 @@
         <v>75</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>833</v>
+        <v>1123</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>834</v>
+        <v>1124</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>835</v>
-      </c>
-      <c r="O317" s="2"/>
+        <v>1125</v>
+      </c>
+      <c r="O317" t="s" s="2">
+        <v>1126</v>
+      </c>
       <c r="P317" s="2"/>
       <c r="Q317" t="s" s="2">
         <v>75</v>
@@ -38372,13 +38593,13 @@
         <v>75</v>
       </c>
       <c r="AG317" t="s" s="2">
-        <v>832</v>
+        <v>1122</v>
       </c>
       <c r="AH317" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI317" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ317" t="s" s="2">
         <v>75</v>
@@ -38392,21 +38613,21 @@
         <v>1209</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>836</v>
+        <v>1127</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>836</v>
+        <v>1127</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
-        <v>837</v>
+        <v>75</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H318" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I318" t="s" s="2">
         <v>75</v>
@@ -38418,15 +38639,17 @@
         <v>75</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>838</v>
+        <v>1128</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>839</v>
+        <v>1129</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="O318" s="2"/>
+        <v>1130</v>
+      </c>
+      <c r="O318" t="s" s="2">
+        <v>1131</v>
+      </c>
       <c r="P318" s="2"/>
       <c r="Q318" t="s" s="2">
         <v>75</v>
@@ -38475,13 +38698,13 @@
         <v>75</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>836</v>
+        <v>1127</v>
       </c>
       <c r="AH318" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI318" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ318" t="s" s="2">
         <v>75</v>
@@ -38495,10 +38718,10 @@
         <v>1209</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>841</v>
+        <v>1132</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>841</v>
+        <v>1132</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -38518,19 +38741,23 @@
         <v>75</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L319" t="s" s="2">
         <v>280</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>842</v>
+        <v>1133</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>843</v>
-      </c>
-      <c r="O319" s="2"/>
-      <c r="P319" s="2"/>
+        <v>1134</v>
+      </c>
+      <c r="O319" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="P319" t="s" s="2">
+        <v>1136</v>
+      </c>
       <c r="Q319" t="s" s="2">
         <v>75</v>
       </c>
@@ -38578,7 +38805,7 @@
         <v>75</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>841</v>
+        <v>1132</v>
       </c>
       <c r="AH319" t="s" s="2">
         <v>76</v>
@@ -38590,7 +38817,7 @@
         <v>75</v>
       </c>
       <c r="AK319" t="s" s="2">
-        <v>94</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="320">
@@ -38598,10 +38825,10 @@
         <v>1209</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>844</v>
+        <v>1138</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>844</v>
+        <v>1138</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -38701,10 +38928,10 @@
         <v>1209</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>845</v>
+        <v>1139</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>845</v>
+        <v>1139</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -38806,10 +39033,10 @@
         <v>1209</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>846</v>
+        <v>1140</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>846</v>
+        <v>1140</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -38913,10 +39140,10 @@
         <v>1209</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>847</v>
+        <v>1141</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>847</v>
+        <v>1141</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -38927,7 +39154,7 @@
         <v>76</v>
       </c>
       <c r="H323" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I323" t="s" s="2">
         <v>75</v>
@@ -38936,20 +39163,18 @@
         <v>75</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>172</v>
+        <v>1142</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>848</v>
+        <v>1143</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>849</v>
-      </c>
-      <c r="O323" t="s" s="2">
-        <v>850</v>
-      </c>
+        <v>1144</v>
+      </c>
+      <c r="O323" s="2"/>
       <c r="P323" s="2"/>
       <c r="Q323" t="s" s="2">
         <v>75</v>
@@ -38974,13 +39199,13 @@
         <v>75</v>
       </c>
       <c r="Y323" t="s" s="2">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="Z323" t="s" s="2">
-        <v>849</v>
+        <v>75</v>
       </c>
       <c r="AA323" t="s" s="2">
-        <v>851</v>
+        <v>75</v>
       </c>
       <c r="AB323" t="s" s="2">
         <v>75</v>
@@ -38998,16 +39223,16 @@
         <v>75</v>
       </c>
       <c r="AG323" t="s" s="2">
-        <v>847</v>
+        <v>1141</v>
       </c>
       <c r="AH323" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI323" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ323" t="s" s="2">
-        <v>75</v>
+        <v>1145</v>
       </c>
       <c r="AK323" t="s" s="2">
         <v>94</v>
@@ -39018,10 +39243,10 @@
         <v>1209</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>852</v>
+        <v>1146</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>852</v>
+        <v>1146</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -39044,13 +39269,13 @@
         <v>75</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>199</v>
+        <v>1142</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>853</v>
+        <v>1147</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>854</v>
+        <v>1148</v>
       </c>
       <c r="O324" s="2"/>
       <c r="P324" s="2"/>
@@ -39101,7 +39326,7 @@
         <v>75</v>
       </c>
       <c r="AG324" t="s" s="2">
-        <v>852</v>
+        <v>1146</v>
       </c>
       <c r="AH324" t="s" s="2">
         <v>76</v>
@@ -39110,7 +39335,7 @@
         <v>82</v>
       </c>
       <c r="AJ324" t="s" s="2">
-        <v>75</v>
+        <v>1145</v>
       </c>
       <c r="AK324" t="s" s="2">
         <v>94</v>
@@ -39121,10 +39346,10 @@
         <v>1209</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>855</v>
+        <v>1149</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>855</v>
+        <v>1149</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -39144,19 +39369,23 @@
         <v>75</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>856</v>
+        <v>172</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>857</v>
+        <v>1150</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="O325" s="2"/>
-      <c r="P325" s="2"/>
+        <v>1151</v>
+      </c>
+      <c r="O325" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="P325" t="s" s="2">
+        <v>1153</v>
+      </c>
       <c r="Q325" t="s" s="2">
         <v>75</v>
       </c>
@@ -39180,13 +39409,13 @@
         <v>75</v>
       </c>
       <c r="Y325" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="Z325" t="s" s="2">
-        <v>75</v>
+        <v>1154</v>
       </c>
       <c r="AA325" t="s" s="2">
-        <v>75</v>
+        <v>1155</v>
       </c>
       <c r="AB325" t="s" s="2">
         <v>75</v>
@@ -39204,7 +39433,7 @@
         <v>75</v>
       </c>
       <c r="AG325" t="s" s="2">
-        <v>855</v>
+        <v>1149</v>
       </c>
       <c r="AH325" t="s" s="2">
         <v>76</v>
@@ -39224,10 +39453,10 @@
         <v>1209</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>859</v>
+        <v>1156</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>859</v>
+        <v>1156</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -39247,19 +39476,23 @@
         <v>75</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>860</v>
+        <v>172</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>861</v>
+        <v>1157</v>
       </c>
       <c r="N326" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="O326" s="2"/>
-      <c r="P326" s="2"/>
+        <v>1158</v>
+      </c>
+      <c r="O326" t="s" s="2">
+        <v>1159</v>
+      </c>
+      <c r="P326" t="s" s="2">
+        <v>1160</v>
+      </c>
       <c r="Q326" t="s" s="2">
         <v>75</v>
       </c>
@@ -39283,13 +39516,13 @@
         <v>75</v>
       </c>
       <c r="Y326" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="Z326" t="s" s="2">
-        <v>75</v>
+        <v>1161</v>
       </c>
       <c r="AA326" t="s" s="2">
-        <v>75</v>
+        <v>1162</v>
       </c>
       <c r="AB326" t="s" s="2">
         <v>75</v>
@@ -39307,7 +39540,7 @@
         <v>75</v>
       </c>
       <c r="AG326" t="s" s="2">
-        <v>859</v>
+        <v>1156</v>
       </c>
       <c r="AH326" t="s" s="2">
         <v>76</v>
@@ -39327,10 +39560,10 @@
         <v>1209</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>863</v>
+        <v>1163</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>863</v>
+        <v>1163</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -39338,7 +39571,7 @@
       </c>
       <c r="F327" s="2"/>
       <c r="G327" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H327" t="s" s="2">
         <v>82</v>
@@ -39353,18 +39586,18 @@
         <v>75</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>199</v>
+        <v>1164</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>864</v>
+        <v>1165</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>865</v>
-      </c>
-      <c r="O327" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="P327" s="2"/>
+        <v>1166</v>
+      </c>
+      <c r="O327" s="2"/>
+      <c r="P327" t="s" s="2">
+        <v>1167</v>
+      </c>
       <c r="Q327" t="s" s="2">
         <v>75</v>
       </c>
@@ -39412,7 +39645,7 @@
         <v>75</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>863</v>
+        <v>1163</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>76</v>
@@ -39432,10 +39665,10 @@
         <v>1209</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>867</v>
+        <v>1168</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>867</v>
+        <v>1168</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -39458,17 +39691,15 @@
         <v>75</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>868</v>
+        <v>149</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>869</v>
+        <v>1169</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>870</v>
-      </c>
-      <c r="O328" t="s" s="2">
-        <v>871</v>
-      </c>
+        <v>1170</v>
+      </c>
+      <c r="O328" s="2"/>
       <c r="P328" s="2"/>
       <c r="Q328" t="s" s="2">
         <v>75</v>
@@ -39517,7 +39748,7 @@
         <v>75</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>867</v>
+        <v>1168</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>76</v>
@@ -39537,14 +39768,14 @@
         <v>1209</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>872</v>
+        <v>1171</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>872</v>
+        <v>1171</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
-        <v>873</v>
+        <v>75</v>
       </c>
       <c r="F329" s="2"/>
       <c r="G329" t="s" s="2">
@@ -39563,16 +39794,16 @@
         <v>83</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>172</v>
+        <v>1172</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>874</v>
+        <v>1173</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>875</v>
+        <v>1174</v>
       </c>
       <c r="O329" t="s" s="2">
-        <v>876</v>
+        <v>1175</v>
       </c>
       <c r="P329" s="2"/>
       <c r="Q329" t="s" s="2">
@@ -39598,13 +39829,13 @@
         <v>75</v>
       </c>
       <c r="Y329" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="Z329" t="s" s="2">
-        <v>877</v>
+        <v>75</v>
       </c>
       <c r="AA329" t="s" s="2">
-        <v>878</v>
+        <v>75</v>
       </c>
       <c r="AB329" t="s" s="2">
         <v>75</v>
@@ -39622,7 +39853,7 @@
         <v>75</v>
       </c>
       <c r="AG329" t="s" s="2">
-        <v>872</v>
+        <v>1171</v>
       </c>
       <c r="AH329" t="s" s="2">
         <v>76</v>
@@ -39642,14 +39873,14 @@
         <v>1209</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>879</v>
+        <v>1176</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>879</v>
+        <v>1176</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
-        <v>873</v>
+        <v>75</v>
       </c>
       <c r="F330" s="2"/>
       <c r="G330" t="s" s="2">
@@ -39668,16 +39899,16 @@
         <v>83</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>880</v>
+        <v>1177</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>881</v>
+        <v>1178</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>875</v>
+        <v>1179</v>
       </c>
       <c r="O330" t="s" s="2">
-        <v>876</v>
+        <v>1180</v>
       </c>
       <c r="P330" s="2"/>
       <c r="Q330" t="s" s="2">
@@ -39727,7 +39958,7 @@
         <v>75</v>
       </c>
       <c r="AG330" t="s" s="2">
-        <v>879</v>
+        <v>1176</v>
       </c>
       <c r="AH330" t="s" s="2">
         <v>76</v>
@@ -39747,10 +39978,10 @@
         <v>1209</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>882</v>
+        <v>1181</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>882</v>
+        <v>1181</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -39776,13 +40007,17 @@
         <v>280</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>883</v>
+        <v>1182</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>884</v>
-      </c>
-      <c r="O331" s="2"/>
-      <c r="P331" s="2"/>
+        <v>1183</v>
+      </c>
+      <c r="O331" t="s" s="2">
+        <v>1184</v>
+      </c>
+      <c r="P331" t="s" s="2">
+        <v>1185</v>
+      </c>
       <c r="Q331" t="s" s="2">
         <v>75</v>
       </c>
@@ -39830,7 +40065,7 @@
         <v>75</v>
       </c>
       <c r="AG331" t="s" s="2">
-        <v>882</v>
+        <v>1181</v>
       </c>
       <c r="AH331" t="s" s="2">
         <v>76</v>
@@ -39850,10 +40085,10 @@
         <v>1209</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>885</v>
+        <v>1186</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>885</v>
+        <v>1186</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -39953,10 +40188,10 @@
         <v>1209</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>886</v>
+        <v>1187</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>886</v>
+        <v>1187</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -40058,10 +40293,10 @@
         <v>1209</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>887</v>
+        <v>1188</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>887</v>
+        <v>1188</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -40165,14 +40400,14 @@
         <v>1209</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>888</v>
+        <v>1189</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>888</v>
+        <v>1189</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
-        <v>889</v>
+        <v>75</v>
       </c>
       <c r="F335" s="2"/>
       <c r="G335" t="s" s="2">
@@ -40191,18 +40426,20 @@
         <v>83</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>890</v>
+        <v>172</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>891</v>
+        <v>1190</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>892</v>
+        <v>1191</v>
       </c>
       <c r="O335" t="s" s="2">
-        <v>876</v>
-      </c>
-      <c r="P335" s="2"/>
+        <v>1192</v>
+      </c>
+      <c r="P335" t="s" s="2">
+        <v>1044</v>
+      </c>
       <c r="Q335" t="s" s="2">
         <v>75</v>
       </c>
@@ -40226,13 +40463,13 @@
         <v>75</v>
       </c>
       <c r="Y335" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="Z335" t="s" s="2">
-        <v>75</v>
+        <v>1193</v>
       </c>
       <c r="AA335" t="s" s="2">
-        <v>75</v>
+        <v>1194</v>
       </c>
       <c r="AB335" t="s" s="2">
         <v>75</v>
@@ -40250,7 +40487,7 @@
         <v>75</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>888</v>
+        <v>1189</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>82</v>
@@ -40270,10 +40507,10 @@
         <v>1209</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>893</v>
+        <v>1195</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>893</v>
+        <v>1195</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -40293,19 +40530,23 @@
         <v>75</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>172</v>
+        <v>1196</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>894</v>
+        <v>1197</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>895</v>
-      </c>
-      <c r="O336" s="2"/>
-      <c r="P336" s="2"/>
+        <v>1085</v>
+      </c>
+      <c r="O336" t="s" s="2">
+        <v>1198</v>
+      </c>
+      <c r="P336" t="s" s="2">
+        <v>1087</v>
+      </c>
       <c r="Q336" t="s" s="2">
         <v>75</v>
       </c>
@@ -40329,13 +40570,13 @@
         <v>75</v>
       </c>
       <c r="Y336" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="Z336" t="s" s="2">
-        <v>896</v>
+        <v>75</v>
       </c>
       <c r="AA336" t="s" s="2">
-        <v>897</v>
+        <v>75</v>
       </c>
       <c r="AB336" t="s" s="2">
         <v>75</v>
@@ -40353,7 +40594,7 @@
         <v>75</v>
       </c>
       <c r="AG336" t="s" s="2">
-        <v>893</v>
+        <v>1195</v>
       </c>
       <c r="AH336" t="s" s="2">
         <v>76</v>
@@ -40373,10 +40614,10 @@
         <v>1209</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>898</v>
+        <v>1199</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>898</v>
+        <v>1199</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -40399,16 +40640,20 @@
         <v>75</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>899</v>
+        <v>172</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>901</v>
-      </c>
-      <c r="O337" s="2"/>
-      <c r="P337" s="2"/>
+        <v>1201</v>
+      </c>
+      <c r="O337" t="s" s="2">
+        <v>1202</v>
+      </c>
+      <c r="P337" t="s" s="2">
+        <v>1095</v>
+      </c>
       <c r="Q337" t="s" s="2">
         <v>75</v>
       </c>
@@ -40432,13 +40677,13 @@
         <v>75</v>
       </c>
       <c r="Y337" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Z337" t="s" s="2">
-        <v>75</v>
+        <v>1096</v>
       </c>
       <c r="AA337" t="s" s="2">
-        <v>75</v>
+        <v>1097</v>
       </c>
       <c r="AB337" t="s" s="2">
         <v>75</v>
@@ -40456,7 +40701,7 @@
         <v>75</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>898</v>
+        <v>1199</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>76</v>
@@ -40465,7 +40710,7 @@
         <v>82</v>
       </c>
       <c r="AJ337" t="s" s="2">
-        <v>75</v>
+        <v>1098</v>
       </c>
       <c r="AK337" t="s" s="2">
         <v>94</v>
@@ -40476,14 +40721,14 @@
         <v>1209</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>902</v>
+        <v>1203</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>902</v>
+        <v>1203</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
-        <v>75</v>
+        <v>1100</v>
       </c>
       <c r="F338" s="2"/>
       <c r="G338" t="s" s="2">
@@ -40502,18 +40747,20 @@
         <v>75</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>903</v>
+        <v>172</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>904</v>
+        <v>1101</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>905</v>
+        <v>1102</v>
       </c>
       <c r="O338" t="s" s="2">
-        <v>906</v>
-      </c>
-      <c r="P338" s="2"/>
+        <v>1103</v>
+      </c>
+      <c r="P338" t="s" s="2">
+        <v>1104</v>
+      </c>
       <c r="Q338" t="s" s="2">
         <v>75</v>
       </c>
@@ -40537,13 +40784,13 @@
         <v>75</v>
       </c>
       <c r="Y338" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Z338" t="s" s="2">
-        <v>75</v>
+        <v>1204</v>
       </c>
       <c r="AA338" t="s" s="2">
-        <v>75</v>
+        <v>1205</v>
       </c>
       <c r="AB338" t="s" s="2">
         <v>75</v>
@@ -40561,7 +40808,7 @@
         <v>75</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>902</v>
+        <v>1203</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>76</v>
@@ -40581,10 +40828,10 @@
         <v>1209</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>907</v>
+        <v>1206</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>907</v>
+        <v>1206</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -40595,7 +40842,7 @@
         <v>76</v>
       </c>
       <c r="H339" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I339" t="s" s="2">
         <v>75</v>
@@ -40607,18 +40854,20 @@
         <v>75</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>908</v>
+        <v>1207</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>909</v>
+        <v>1208</v>
       </c>
       <c r="O339" t="s" s="2">
-        <v>910</v>
-      </c>
-      <c r="P339" s="2"/>
+        <v>1135</v>
+      </c>
+      <c r="P339" t="s" s="2">
+        <v>1136</v>
+      </c>
       <c r="Q339" t="s" s="2">
         <v>75</v>
       </c>
@@ -40666,13 +40915,13 @@
         <v>75</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>907</v>
+        <v>1206</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI339" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ339" t="s" s="2">
         <v>75</v>
@@ -40683,24 +40932,24 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>911</v>
+        <v>759</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>911</v>
+        <v>759</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
-        <v>75</v>
+        <v>761</v>
       </c>
       <c r="F340" s="2"/>
       <c r="G340" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H340" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I340" t="s" s="2">
         <v>75</v>
@@ -40712,13 +40961,13 @@
         <v>75</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>150</v>
+        <v>762</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>151</v>
+        <v>763</v>
       </c>
       <c r="O340" s="2"/>
       <c r="P340" s="2"/>
@@ -40769,13 +41018,13 @@
         <v>75</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>152</v>
+        <v>759</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI340" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ340" t="s" s="2">
         <v>75</v>
@@ -40786,24 +41035,24 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>912</v>
+        <v>764</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>912</v>
+        <v>764</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="F341" s="2"/>
       <c r="G341" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H341" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I341" t="s" s="2">
         <v>75</v>
@@ -40812,19 +41061,19 @@
         <v>75</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="O341" t="s" s="2">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="P341" s="2"/>
       <c r="Q341" t="s" s="2">
@@ -40874,66 +41123,62 @@
         <v>75</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI341" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ341" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK341" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>913</v>
+        <v>765</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>913</v>
+        <v>765</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="F342" s="2"/>
       <c r="G342" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H342" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I342" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J342" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K342" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>288</v>
+        <v>91</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O342" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P342" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="O342" s="2"/>
+      <c r="P342" s="2"/>
       <c r="Q342" t="s" s="2">
         <v>75</v>
       </c>
@@ -40981,30 +41226,30 @@
         <v>75</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI342" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ342" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK342" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>914</v>
+        <v>766</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>914</v>
+        <v>766</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -41021,21 +41266,23 @@
         <v>75</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>915</v>
+        <v>97</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>916</v>
-      </c>
-      <c r="O343" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O343" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P343" s="2"/>
       <c r="Q343" t="s" s="2">
         <v>75</v>
@@ -41084,7 +41331,7 @@
         <v>75</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>914</v>
+        <v>100</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>76</v>
@@ -41101,13 +41348,13 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>917</v>
+        <v>767</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>917</v>
+        <v>767</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -41130,15 +41377,17 @@
         <v>75</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>918</v>
+        <v>102</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>919</v>
+        <v>103</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="O344" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="O344" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P344" s="2"/>
       <c r="Q344" t="s" s="2">
         <v>75</v>
@@ -41163,13 +41412,13 @@
         <v>75</v>
       </c>
       <c r="Y344" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="Z344" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AA344" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="AB344" t="s" s="2">
         <v>75</v>
@@ -41187,7 +41436,7 @@
         <v>75</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>917</v>
+        <v>109</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>76</v>
@@ -41204,17 +41453,17 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>921</v>
+        <v>768</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>921</v>
+        <v>768</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="F345" s="2"/>
       <c r="G345" t="s" s="2">
@@ -41233,15 +41482,17 @@
         <v>75</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>922</v>
+        <v>113</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="O345" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="O345" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="P345" s="2"/>
       <c r="Q345" t="s" s="2">
         <v>75</v>
@@ -41266,13 +41517,13 @@
         <v>75</v>
       </c>
       <c r="Y345" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="Z345" t="s" s="2">
-        <v>924</v>
+        <v>75</v>
       </c>
       <c r="AA345" t="s" s="2">
-        <v>925</v>
+        <v>75</v>
       </c>
       <c r="AB345" t="s" s="2">
         <v>75</v>
@@ -41290,7 +41541,7 @@
         <v>75</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>921</v>
+        <v>116</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>76</v>
@@ -41307,24 +41558,24 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>926</v>
+        <v>769</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>926</v>
+        <v>769</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="F346" s="2"/>
       <c r="G346" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H346" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I346" t="s" s="2">
         <v>75</v>
@@ -41336,15 +41587,17 @@
         <v>75</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>927</v>
+        <v>120</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>928</v>
-      </c>
-      <c r="O346" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="O346" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="P346" s="2"/>
       <c r="Q346" t="s" s="2">
         <v>75</v>
@@ -41369,13 +41622,13 @@
         <v>75</v>
       </c>
       <c r="Y346" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Z346" t="s" s="2">
-        <v>929</v>
+        <v>75</v>
       </c>
       <c r="AA346" t="s" s="2">
-        <v>930</v>
+        <v>75</v>
       </c>
       <c r="AB346" t="s" s="2">
         <v>75</v>
@@ -41393,34 +41646,34 @@
         <v>75</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>926</v>
+        <v>123</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI346" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ346" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK346" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>931</v>
+        <v>770</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>931</v>
+        <v>770</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F347" s="2"/>
       <c r="G347" t="s" s="2">
@@ -41439,20 +41692,18 @@
         <v>75</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>932</v>
+        <v>127</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>933</v>
+        <v>128</v>
       </c>
       <c r="O347" t="s" s="2">
-        <v>934</v>
-      </c>
-      <c r="P347" t="s" s="2">
-        <v>935</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="P347" s="2"/>
       <c r="Q347" t="s" s="2">
         <v>75</v>
       </c>
@@ -41476,13 +41727,13 @@
         <v>75</v>
       </c>
       <c r="Y347" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Z347" t="s" s="2">
-        <v>936</v>
+        <v>75</v>
       </c>
       <c r="AA347" t="s" s="2">
-        <v>937</v>
+        <v>75</v>
       </c>
       <c r="AB347" t="s" s="2">
         <v>75</v>
@@ -41500,7 +41751,7 @@
         <v>75</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>931</v>
+        <v>130</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>76</v>
@@ -41512,22 +41763,22 @@
         <v>75</v>
       </c>
       <c r="AK347" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>938</v>
+        <v>774</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>938</v>
+        <v>774</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F348" s="2"/>
       <c r="G348" t="s" s="2">
@@ -41540,22 +41791,26 @@
         <v>75</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K348" t="s" s="2">
         <v>75</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>939</v>
+        <v>133</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="O348" s="2"/>
-      <c r="P348" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O348" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P348" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="Q348" t="s" s="2">
         <v>75</v>
       </c>
@@ -41579,13 +41834,13 @@
         <v>75</v>
       </c>
       <c r="Y348" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="Z348" t="s" s="2">
-        <v>941</v>
+        <v>75</v>
       </c>
       <c r="AA348" t="s" s="2">
-        <v>942</v>
+        <v>75</v>
       </c>
       <c r="AB348" t="s" s="2">
         <v>75</v>
@@ -41603,7 +41858,7 @@
         <v>75</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>938</v>
+        <v>136</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>76</v>
@@ -41615,18 +41870,18 @@
         <v>75</v>
       </c>
       <c r="AK348" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>943</v>
+        <v>775</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>943</v>
+        <v>775</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -41646,16 +41901,16 @@
         <v>75</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>944</v>
+        <v>776</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>945</v>
+        <v>777</v>
       </c>
       <c r="O349" s="2"/>
       <c r="P349" s="2"/>
@@ -41682,13 +41937,13 @@
         <v>75</v>
       </c>
       <c r="Y349" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="Z349" t="s" s="2">
-        <v>946</v>
+        <v>75</v>
       </c>
       <c r="AA349" t="s" s="2">
-        <v>947</v>
+        <v>75</v>
       </c>
       <c r="AB349" t="s" s="2">
         <v>75</v>
@@ -41706,7 +41961,7 @@
         <v>75</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>943</v>
+        <v>775</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>76</v>
@@ -41723,13 +41978,13 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>948</v>
+        <v>778</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>948</v>
+        <v>778</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -41737,7 +41992,7 @@
       </c>
       <c r="F350" s="2"/>
       <c r="G350" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H350" t="s" s="2">
         <v>82</v>
@@ -41746,21 +42001,23 @@
         <v>75</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>918</v>
+        <v>102</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>949</v>
+        <v>779</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="O350" s="2"/>
+        <v>780</v>
+      </c>
+      <c r="O350" t="s" s="2">
+        <v>781</v>
+      </c>
       <c r="P350" s="2"/>
       <c r="Q350" t="s" s="2">
         <v>75</v>
@@ -41785,13 +42042,13 @@
         <v>75</v>
       </c>
       <c r="Y350" t="s" s="2">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="Z350" t="s" s="2">
-        <v>75</v>
+        <v>782</v>
       </c>
       <c r="AA350" t="s" s="2">
-        <v>75</v>
+        <v>783</v>
       </c>
       <c r="AB350" t="s" s="2">
         <v>75</v>
@@ -41809,10 +42066,10 @@
         <v>75</v>
       </c>
       <c r="AG350" t="s" s="2">
-        <v>948</v>
+        <v>778</v>
       </c>
       <c r="AH350" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI350" t="s" s="2">
         <v>82</v>
@@ -41826,13 +42083,13 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>951</v>
+        <v>784</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>951</v>
+        <v>784</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -41843,7 +42100,7 @@
         <v>76</v>
       </c>
       <c r="H351" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I351" t="s" s="2">
         <v>75</v>
@@ -41855,15 +42112,17 @@
         <v>75</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>172</v>
+        <v>280</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>952</v>
+        <v>785</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>953</v>
-      </c>
-      <c r="O351" s="2"/>
+        <v>786</v>
+      </c>
+      <c r="O351" t="s" s="2">
+        <v>787</v>
+      </c>
       <c r="P351" s="2"/>
       <c r="Q351" t="s" s="2">
         <v>75</v>
@@ -41888,13 +42147,13 @@
         <v>75</v>
       </c>
       <c r="Y351" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Z351" t="s" s="2">
-        <v>954</v>
+        <v>75</v>
       </c>
       <c r="AA351" t="s" s="2">
-        <v>955</v>
+        <v>75</v>
       </c>
       <c r="AB351" t="s" s="2">
         <v>75</v>
@@ -41912,13 +42171,13 @@
         <v>75</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>951</v>
+        <v>784</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI351" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ351" t="s" s="2">
         <v>75</v>
@@ -41929,13 +42188,13 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>956</v>
+        <v>788</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>956</v>
+        <v>788</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -41946,7 +42205,7 @@
         <v>76</v>
       </c>
       <c r="H352" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I352" t="s" s="2">
         <v>75</v>
@@ -41958,17 +42217,15 @@
         <v>75</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>280</v>
+        <v>149</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>957</v>
+        <v>150</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>958</v>
-      </c>
-      <c r="O352" t="s" s="2">
-        <v>959</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O352" s="2"/>
       <c r="P352" s="2"/>
       <c r="Q352" t="s" s="2">
         <v>75</v>
@@ -42017,41 +42274,41 @@
         <v>75</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>956</v>
+        <v>152</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI352" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ352" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK352" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>960</v>
+        <v>789</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>960</v>
+        <v>789</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F353" s="2"/>
       <c r="G353" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H353" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I353" t="s" s="2">
         <v>75</v>
@@ -42063,15 +42320,17 @@
         <v>75</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O353" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="O353" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P353" s="2"/>
       <c r="Q353" t="s" s="2">
         <v>75</v>
@@ -42120,34 +42379,34 @@
         <v>75</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI353" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ353" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK353" t="s" s="2">
-        <v>75</v>
+        <v>131</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>961</v>
+        <v>790</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>961</v>
+        <v>790</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="F354" s="2"/>
       <c r="G354" t="s" s="2">
@@ -42160,24 +42419,26 @@
         <v>75</v>
       </c>
       <c r="J354" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L354" t="s" s="2">
         <v>126</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>155</v>
+        <v>289</v>
       </c>
       <c r="O354" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="P354" s="2"/>
+      <c r="P354" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="Q354" t="s" s="2">
         <v>75</v>
       </c>
@@ -42225,7 +42486,7 @@
         <v>75</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>159</v>
+        <v>290</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>76</v>
@@ -42242,49 +42503,45 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>962</v>
+        <v>791</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>962</v>
+        <v>791</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="F355" s="2"/>
       <c r="G355" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H355" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I355" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J355" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>288</v>
+        <v>779</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O355" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P355" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="O355" s="2"/>
+      <c r="P355" s="2"/>
       <c r="Q355" t="s" s="2">
         <v>75</v>
       </c>
@@ -42308,13 +42565,13 @@
         <v>75</v>
       </c>
       <c r="Y355" t="s" s="2">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="Z355" t="s" s="2">
-        <v>75</v>
+        <v>782</v>
       </c>
       <c r="AA355" t="s" s="2">
-        <v>75</v>
+        <v>783</v>
       </c>
       <c r="AB355" t="s" s="2">
         <v>75</v>
@@ -42332,30 +42589,30 @@
         <v>75</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>290</v>
+        <v>791</v>
       </c>
       <c r="AH355" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI355" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AJ355" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK355" t="s" s="2">
-        <v>131</v>
+        <v>94</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>963</v>
+        <v>792</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>963</v>
+        <v>792</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
@@ -42378,13 +42635,13 @@
         <v>75</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>964</v>
+        <v>199</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>965</v>
+        <v>793</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>966</v>
+        <v>794</v>
       </c>
       <c r="O356" s="2"/>
       <c r="P356" s="2"/>
@@ -42435,7 +42692,7 @@
         <v>75</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>963</v>
+        <v>792</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>82</v>
@@ -42452,13 +42709,13 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>967</v>
+        <v>795</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>967</v>
+        <v>795</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -42466,7 +42723,7 @@
       </c>
       <c r="F357" s="2"/>
       <c r="G357" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H357" t="s" s="2">
         <v>82</v>
@@ -42478,20 +42735,18 @@
         <v>75</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>102</v>
+        <v>796</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>968</v>
+        <v>797</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>969</v>
-      </c>
-      <c r="O357" t="s" s="2">
-        <v>970</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="O357" s="2"/>
       <c r="P357" s="2"/>
       <c r="Q357" t="s" s="2">
         <v>75</v>
@@ -42516,13 +42771,13 @@
         <v>75</v>
       </c>
       <c r="Y357" t="s" s="2">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="Z357" t="s" s="2">
-        <v>971</v>
+        <v>799</v>
       </c>
       <c r="AA357" t="s" s="2">
-        <v>972</v>
+        <v>800</v>
       </c>
       <c r="AB357" t="s" s="2">
         <v>75</v>
@@ -42540,10 +42795,10 @@
         <v>75</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>967</v>
+        <v>795</v>
       </c>
       <c r="AH357" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI357" t="s" s="2">
         <v>82</v>
@@ -42557,13 +42812,13 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>973</v>
+        <v>801</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>973</v>
+        <v>801</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -42574,7 +42829,7 @@
         <v>76</v>
       </c>
       <c r="H358" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I358" t="s" s="2">
         <v>75</v>
@@ -42586,17 +42841,15 @@
         <v>75</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>172</v>
+        <v>280</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>974</v>
+        <v>802</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>975</v>
-      </c>
-      <c r="O358" t="s" s="2">
-        <v>976</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="O358" s="2"/>
       <c r="P358" s="2"/>
       <c r="Q358" t="s" s="2">
         <v>75</v>
@@ -42621,13 +42874,13 @@
         <v>75</v>
       </c>
       <c r="Y358" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Z358" t="s" s="2">
-        <v>977</v>
+        <v>75</v>
       </c>
       <c r="AA358" t="s" s="2">
-        <v>978</v>
+        <v>75</v>
       </c>
       <c r="AB358" t="s" s="2">
         <v>75</v>
@@ -42645,13 +42898,13 @@
         <v>75</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>973</v>
+        <v>801</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI358" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ358" t="s" s="2">
         <v>75</v>
@@ -42662,13 +42915,13 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>979</v>
+        <v>804</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>979</v>
+        <v>804</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -42691,13 +42944,13 @@
         <v>75</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>981</v>
+        <v>151</v>
       </c>
       <c r="O359" s="2"/>
       <c r="P359" s="2"/>
@@ -42748,7 +43001,7 @@
         <v>75</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>979</v>
+        <v>152</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>76</v>
@@ -42760,29 +43013,29 @@
         <v>75</v>
       </c>
       <c r="AK359" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>982</v>
+        <v>805</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>982</v>
+        <v>805</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F360" s="2"/>
       <c r="G360" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H360" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I360" t="s" s="2">
         <v>75</v>
@@ -42794,15 +43047,17 @@
         <v>75</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>983</v>
+        <v>127</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>984</v>
-      </c>
-      <c r="O360" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="O360" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P360" s="2"/>
       <c r="Q360" t="s" s="2">
         <v>75</v>
@@ -42851,64 +43106,66 @@
         <v>75</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>982</v>
+        <v>159</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI360" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ360" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK360" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>985</v>
+        <v>806</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>985</v>
+        <v>806</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="F361" s="2"/>
       <c r="G361" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H361" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I361" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J361" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>986</v>
+        <v>288</v>
       </c>
       <c r="N361" t="s" s="2">
-        <v>987</v>
+        <v>289</v>
       </c>
       <c r="O361" t="s" s="2">
-        <v>988</v>
-      </c>
-      <c r="P361" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="P361" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="Q361" t="s" s="2">
         <v>75</v>
       </c>
@@ -42956,18 +43213,5327 @@
         <v>75</v>
       </c>
       <c r="AG361" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AH361" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ361" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK361" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B362" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="C362" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="D362" s="2"/>
+      <c r="E362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F362" s="2"/>
+      <c r="G362" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H362" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L362" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="M362" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="N362" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="O362" s="2"/>
+      <c r="P362" s="2"/>
+      <c r="Q362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R362" s="2"/>
+      <c r="S362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y362" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Z362" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="AA362" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="AB362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG362" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="AH362" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI362" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ362" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK362" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B363" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="C363" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="D363" s="2"/>
+      <c r="E363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F363" s="2"/>
+      <c r="G363" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H363" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L363" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M363" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="N363" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="O363" s="2"/>
+      <c r="P363" s="2"/>
+      <c r="Q363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R363" s="2"/>
+      <c r="S363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG363" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="AH363" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI363" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ363" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK363" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B364" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="C364" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="D364" s="2"/>
+      <c r="E364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F364" s="2"/>
+      <c r="G364" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K364" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L364" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M364" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="N364" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="O364" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="P364" s="2"/>
+      <c r="Q364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R364" s="2"/>
+      <c r="S364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y364" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z364" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="AA364" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="AB364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG364" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="AH364" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ364" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK364" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B365" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="C365" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="D365" s="2"/>
+      <c r="E365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F365" s="2"/>
+      <c r="G365" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H365" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K365" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L365" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M365" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="N365" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="O365" s="2"/>
+      <c r="P365" s="2"/>
+      <c r="Q365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R365" s="2"/>
+      <c r="S365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y365" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z365" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AA365" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AB365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG365" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="AH365" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI365" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ365" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK365" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B366" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="C366" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="D366" s="2"/>
+      <c r="E366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F366" s="2"/>
+      <c r="G366" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H366" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L366" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M366" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="N366" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="O366" s="2"/>
+      <c r="P366" s="2"/>
+      <c r="Q366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R366" s="2"/>
+      <c r="S366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y366" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z366" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="AA366" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="AB366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG366" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="AH366" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI366" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ366" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK366" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B367" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="C367" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="D367" s="2"/>
+      <c r="E367" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="F367" s="2"/>
+      <c r="G367" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H367" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K367" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L367" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M367" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="N367" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="O367" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="P367" s="2"/>
+      <c r="Q367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R367" s="2"/>
+      <c r="S367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG367" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="AH367" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI367" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ367" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK367" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B368" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="C368" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="D368" s="2"/>
+      <c r="E368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F368" s="2"/>
+      <c r="G368" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K368" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L368" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="M368" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="N368" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="O368" s="2"/>
+      <c r="P368" s="2"/>
+      <c r="Q368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R368" s="2"/>
+      <c r="S368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG368" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="AH368" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ368" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK368" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B369" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="C369" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="D369" s="2"/>
+      <c r="E369" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="F369" s="2"/>
+      <c r="G369" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L369" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="M369" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="N369" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="O369" s="2"/>
+      <c r="P369" s="2"/>
+      <c r="Q369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R369" s="2"/>
+      <c r="S369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG369" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="AH369" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ369" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK369" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B370" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="C370" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="D370" s="2"/>
+      <c r="E370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F370" s="2"/>
+      <c r="G370" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K370" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L370" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M370" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="N370" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="O370" s="2"/>
+      <c r="P370" s="2"/>
+      <c r="Q370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R370" s="2"/>
+      <c r="S370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG370" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="AH370" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK370" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B371" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="C371" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="D371" s="2"/>
+      <c r="E371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F371" s="2"/>
+      <c r="G371" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H371" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L371" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M371" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N371" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O371" s="2"/>
+      <c r="P371" s="2"/>
+      <c r="Q371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R371" s="2"/>
+      <c r="S371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG371" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AH371" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI371" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK371" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B372" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="C372" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="D372" s="2"/>
+      <c r="E372" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F372" s="2"/>
+      <c r="G372" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L372" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M372" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N372" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O372" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P372" s="2"/>
+      <c r="Q372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R372" s="2"/>
+      <c r="S372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG372" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AH372" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK372" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B373" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="C373" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="D373" s="2"/>
+      <c r="E373" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="F373" s="2"/>
+      <c r="G373" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J373" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K373" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L373" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M373" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N373" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O373" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P373" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R373" s="2"/>
+      <c r="S373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG373" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AH373" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK373" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B374" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="C374" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="D374" s="2"/>
+      <c r="E374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F374" s="2"/>
+      <c r="G374" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K374" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L374" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M374" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="N374" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="O374" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="P374" s="2"/>
+      <c r="Q374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R374" s="2"/>
+      <c r="S374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y374" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Z374" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="AA374" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="AB374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG374" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="AH374" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK374" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B375" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="C375" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="D375" s="2"/>
+      <c r="E375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F375" s="2"/>
+      <c r="G375" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H375" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L375" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M375" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="N375" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="O375" s="2"/>
+      <c r="P375" s="2"/>
+      <c r="Q375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R375" s="2"/>
+      <c r="S375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG375" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="AH375" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI375" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK375" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B376" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="C376" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="D376" s="2"/>
+      <c r="E376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F376" s="2"/>
+      <c r="G376" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H376" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K376" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L376" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="M376" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="N376" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="O376" s="2"/>
+      <c r="P376" s="2"/>
+      <c r="Q376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R376" s="2"/>
+      <c r="S376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG376" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="AH376" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI376" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK376" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B377" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="C377" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="D377" s="2"/>
+      <c r="E377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F377" s="2"/>
+      <c r="G377" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K377" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L377" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="M377" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="N377" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="O377" s="2"/>
+      <c r="P377" s="2"/>
+      <c r="Q377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R377" s="2"/>
+      <c r="S377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG377" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="AH377" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK377" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B378" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="C378" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="D378" s="2"/>
+      <c r="E378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F378" s="2"/>
+      <c r="G378" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H378" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L378" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M378" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="N378" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="O378" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="P378" s="2"/>
+      <c r="Q378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R378" s="2"/>
+      <c r="S378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG378" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="AH378" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI378" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK378" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B379" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="C379" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="D379" s="2"/>
+      <c r="E379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F379" s="2"/>
+      <c r="G379" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H379" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L379" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="M379" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="N379" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="O379" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="P379" s="2"/>
+      <c r="Q379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R379" s="2"/>
+      <c r="S379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG379" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="AH379" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI379" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK379" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B380" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="C380" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="D380" s="2"/>
+      <c r="E380" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="F380" s="2"/>
+      <c r="G380" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K380" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L380" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M380" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="N380" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="O380" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="P380" s="2"/>
+      <c r="Q380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R380" s="2"/>
+      <c r="S380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y380" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z380" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="AA380" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="AB380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG380" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="AH380" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK380" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B381" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="C381" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="D381" s="2"/>
+      <c r="E381" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="F381" s="2"/>
+      <c r="G381" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K381" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L381" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="M381" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="N381" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="O381" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="P381" s="2"/>
+      <c r="Q381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R381" s="2"/>
+      <c r="S381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG381" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="AH381" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK381" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B382" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="C382" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="D382" s="2"/>
+      <c r="E382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F382" s="2"/>
+      <c r="G382" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K382" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L382" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M382" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="N382" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="O382" s="2"/>
+      <c r="P382" s="2"/>
+      <c r="Q382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R382" s="2"/>
+      <c r="S382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG382" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="AH382" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK382" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B383" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="C383" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="D383" s="2"/>
+      <c r="E383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F383" s="2"/>
+      <c r="G383" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H383" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L383" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M383" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N383" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O383" s="2"/>
+      <c r="P383" s="2"/>
+      <c r="Q383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R383" s="2"/>
+      <c r="S383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG383" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AH383" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI383" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK383" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B384" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="C384" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="D384" s="2"/>
+      <c r="E384" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F384" s="2"/>
+      <c r="G384" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L384" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M384" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N384" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O384" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P384" s="2"/>
+      <c r="Q384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R384" s="2"/>
+      <c r="S384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG384" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AH384" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK384" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B385" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="C385" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="D385" s="2"/>
+      <c r="E385" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="F385" s="2"/>
+      <c r="G385" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J385" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K385" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L385" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M385" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N385" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O385" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P385" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R385" s="2"/>
+      <c r="S385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG385" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AH385" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK385" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B386" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="C386" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="D386" s="2"/>
+      <c r="E386" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="F386" s="2"/>
+      <c r="G386" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H386" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K386" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L386" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="M386" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="N386" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="O386" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="P386" s="2"/>
+      <c r="Q386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R386" s="2"/>
+      <c r="S386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG386" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="AH386" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI386" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ386" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK386" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B387" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="C387" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="D387" s="2"/>
+      <c r="E387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F387" s="2"/>
+      <c r="G387" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H387" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L387" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M387" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="N387" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="O387" s="2"/>
+      <c r="P387" s="2"/>
+      <c r="Q387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R387" s="2"/>
+      <c r="S387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y387" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z387" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="AA387" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="AB387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG387" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="AH387" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI387" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ387" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK387" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B388" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="C388" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="D388" s="2"/>
+      <c r="E388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F388" s="2"/>
+      <c r="G388" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H388" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L388" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="M388" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="N388" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="O388" s="2"/>
+      <c r="P388" s="2"/>
+      <c r="Q388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R388" s="2"/>
+      <c r="S388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG388" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="AH388" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI388" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK388" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B389" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="C389" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="D389" s="2"/>
+      <c r="E389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F389" s="2"/>
+      <c r="G389" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L389" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="M389" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="N389" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="O389" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="P389" s="2"/>
+      <c r="Q389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R389" s="2"/>
+      <c r="S389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG389" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="AH389" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK389" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B390" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="C390" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="D390" s="2"/>
+      <c r="E390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F390" s="2"/>
+      <c r="G390" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H390" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L390" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M390" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="N390" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="O390" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="P390" s="2"/>
+      <c r="Q390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R390" s="2"/>
+      <c r="S390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG390" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="AH390" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI390" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK390" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B391" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="C391" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="D391" s="2"/>
+      <c r="E391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F391" s="2"/>
+      <c r="G391" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H391" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L391" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M391" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N391" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O391" s="2"/>
+      <c r="P391" s="2"/>
+      <c r="Q391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R391" s="2"/>
+      <c r="S391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG391" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AH391" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI391" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK391" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B392" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="C392" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="D392" s="2"/>
+      <c r="E392" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F392" s="2"/>
+      <c r="G392" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L392" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M392" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N392" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O392" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P392" s="2"/>
+      <c r="Q392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R392" s="2"/>
+      <c r="S392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG392" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AH392" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK392" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B393" t="s" s="2">
+        <v>913</v>
+      </c>
+      <c r="C393" t="s" s="2">
+        <v>913</v>
+      </c>
+      <c r="D393" s="2"/>
+      <c r="E393" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="F393" s="2"/>
+      <c r="G393" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J393" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K393" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L393" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M393" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N393" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O393" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P393" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R393" s="2"/>
+      <c r="S393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG393" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AH393" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK393" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B394" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="C394" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="D394" s="2"/>
+      <c r="E394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F394" s="2"/>
+      <c r="G394" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H394" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L394" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M394" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="N394" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="O394" s="2"/>
+      <c r="P394" s="2"/>
+      <c r="Q394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R394" s="2"/>
+      <c r="S394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG394" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="AH394" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI394" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK394" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B395" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="C395" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="D395" s="2"/>
+      <c r="E395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F395" s="2"/>
+      <c r="G395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H395" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L395" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="M395" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="N395" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="O395" s="2"/>
+      <c r="P395" s="2"/>
+      <c r="Q395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R395" s="2"/>
+      <c r="S395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG395" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="AH395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI395" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK395" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B396" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="C396" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="D396" s="2"/>
+      <c r="E396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F396" s="2"/>
+      <c r="G396" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H396" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L396" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M396" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="N396" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="O396" s="2"/>
+      <c r="P396" s="2"/>
+      <c r="Q396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R396" s="2"/>
+      <c r="S396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y396" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z396" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="AA396" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="AB396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG396" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="AH396" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI396" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ396" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK396" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B397" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="C397" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="D397" s="2"/>
+      <c r="E397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F397" s="2"/>
+      <c r="G397" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H397" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L397" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M397" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="N397" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="O397" s="2"/>
+      <c r="P397" s="2"/>
+      <c r="Q397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R397" s="2"/>
+      <c r="S397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y397" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z397" t="s" s="2">
+        <v>929</v>
+      </c>
+      <c r="AA397" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="AB397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG397" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="AH397" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI397" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK397" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B398" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="C398" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="D398" s="2"/>
+      <c r="E398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F398" s="2"/>
+      <c r="G398" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L398" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M398" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="N398" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="O398" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="P398" t="s" s="2">
+        <v>935</v>
+      </c>
+      <c r="Q398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R398" s="2"/>
+      <c r="S398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y398" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z398" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="AA398" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="AB398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG398" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="AH398" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK398" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B399" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="C399" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="D399" s="2"/>
+      <c r="E399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F399" s="2"/>
+      <c r="G399" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L399" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M399" t="s" s="2">
+        <v>939</v>
+      </c>
+      <c r="N399" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="O399" s="2"/>
+      <c r="P399" s="2"/>
+      <c r="Q399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R399" s="2"/>
+      <c r="S399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y399" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z399" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="AA399" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="AB399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG399" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="AH399" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK399" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B400" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="C400" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="D400" s="2"/>
+      <c r="E400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F400" s="2"/>
+      <c r="G400" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L400" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M400" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="N400" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="O400" s="2"/>
+      <c r="P400" s="2"/>
+      <c r="Q400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R400" s="2"/>
+      <c r="S400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y400" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Z400" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="AA400" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="AB400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG400" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="AH400" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK400" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B401" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="C401" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="D401" s="2"/>
+      <c r="E401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F401" s="2"/>
+      <c r="G401" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H401" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L401" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="M401" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="N401" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="O401" s="2"/>
+      <c r="P401" s="2"/>
+      <c r="Q401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R401" s="2"/>
+      <c r="S401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG401" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="AH401" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI401" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK401" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B402" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="C402" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="D402" s="2"/>
+      <c r="E402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F402" s="2"/>
+      <c r="G402" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H402" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L402" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M402" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="N402" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="O402" s="2"/>
+      <c r="P402" s="2"/>
+      <c r="Q402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R402" s="2"/>
+      <c r="S402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y402" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z402" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="AA402" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="AB402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG402" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="AH402" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI402" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ402" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK402" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B403" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="C403" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="D403" s="2"/>
+      <c r="E403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F403" s="2"/>
+      <c r="G403" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L403" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M403" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="N403" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="O403" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="P403" s="2"/>
+      <c r="Q403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R403" s="2"/>
+      <c r="S403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG403" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="AH403" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI403" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ403" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK403" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B404" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="C404" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="D404" s="2"/>
+      <c r="E404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F404" s="2"/>
+      <c r="G404" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H404" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L404" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M404" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N404" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O404" s="2"/>
+      <c r="P404" s="2"/>
+      <c r="Q404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R404" s="2"/>
+      <c r="S404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG404" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AH404" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI404" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ404" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK404" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B405" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="C405" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="D405" s="2"/>
+      <c r="E405" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F405" s="2"/>
+      <c r="G405" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L405" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M405" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N405" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O405" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P405" s="2"/>
+      <c r="Q405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R405" s="2"/>
+      <c r="S405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG405" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AH405" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI405" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ405" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK405" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B406" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="C406" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="D406" s="2"/>
+      <c r="E406" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="F406" s="2"/>
+      <c r="G406" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J406" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K406" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L406" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M406" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N406" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O406" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="P406" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R406" s="2"/>
+      <c r="S406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG406" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AH406" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI406" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ406" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK406" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B407" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="C407" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="D407" s="2"/>
+      <c r="E407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F407" s="2"/>
+      <c r="G407" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H407" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L407" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="M407" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="N407" t="s" s="2">
+        <v>966</v>
+      </c>
+      <c r="O407" s="2"/>
+      <c r="P407" s="2"/>
+      <c r="Q407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R407" s="2"/>
+      <c r="S407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG407" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="AH407" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI407" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ407" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK407" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B408" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="C408" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="D408" s="2"/>
+      <c r="E408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F408" s="2"/>
+      <c r="G408" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H408" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L408" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M408" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="N408" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="O408" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="P408" s="2"/>
+      <c r="Q408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R408" s="2"/>
+      <c r="S408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y408" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="Z408" t="s" s="2">
+        <v>971</v>
+      </c>
+      <c r="AA408" t="s" s="2">
+        <v>972</v>
+      </c>
+      <c r="AB408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG408" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="AH408" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI408" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ408" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK408" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B409" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="C409" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="D409" s="2"/>
+      <c r="E409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F409" s="2"/>
+      <c r="G409" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H409" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L409" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M409" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="N409" t="s" s="2">
+        <v>975</v>
+      </c>
+      <c r="O409" t="s" s="2">
+        <v>976</v>
+      </c>
+      <c r="P409" s="2"/>
+      <c r="Q409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R409" s="2"/>
+      <c r="S409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y409" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Z409" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="AA409" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="AB409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG409" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="AH409" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI409" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ409" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK409" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B410" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="C410" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="D410" s="2"/>
+      <c r="E410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F410" s="2"/>
+      <c r="G410" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H410" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L410" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M410" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="N410" t="s" s="2">
+        <v>981</v>
+      </c>
+      <c r="O410" s="2"/>
+      <c r="P410" s="2"/>
+      <c r="Q410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R410" s="2"/>
+      <c r="S410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG410" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="AH410" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI410" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ410" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK410" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B411" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="C411" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="D411" s="2"/>
+      <c r="E411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F411" s="2"/>
+      <c r="G411" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H411" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L411" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M411" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="N411" t="s" s="2">
+        <v>984</v>
+      </c>
+      <c r="O411" s="2"/>
+      <c r="P411" s="2"/>
+      <c r="Q411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R411" s="2"/>
+      <c r="S411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG411" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="AH411" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI411" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ411" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK411" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B412" t="s" s="2">
         <v>985</v>
       </c>
-      <c r="AH361" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI361" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ361" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK361" t="s" s="2">
+      <c r="C412" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="D412" s="2"/>
+      <c r="E412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F412" s="2"/>
+      <c r="G412" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H412" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L412" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M412" t="s" s="2">
+        <v>986</v>
+      </c>
+      <c r="N412" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="O412" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="P412" s="2"/>
+      <c r="Q412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R412" s="2"/>
+      <c r="S412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG412" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="AH412" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI412" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ412" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK412" t="s" s="2">
         <v>94</v>
       </c>
     </row>

--- a/branches/hiv-test-date_fig-20/all-profiles.xlsx
+++ b/branches/hiv-test-date_fig-20/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:42:24+00:00</t>
+    <t>2023-02-10T06:43:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-test-date_fig-20/all-profiles.xlsx
+++ b/branches/hiv-test-date_fig-20/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:43:03+00:00</t>
+    <t>2023-02-10T07:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3791,7 +3791,7 @@
     <t>Date HIV Test Done</t>
   </si>
   <si>
-    <t>This profile is to record the Date when HIV was done for a patient</t>
+    <t>This profile is to record the Date when HIV test was done for a patient</t>
   </si>
   <si>
     <t>transferring-facility-encounter</t>

--- a/branches/hiv-test-date_fig-20/all-profiles.xlsx
+++ b/branches/hiv-test-date_fig-20/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T07:15:04+00:00</t>
+    <t>2023-02-10T07:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-test-date_fig-20/all-profiles.xlsx
+++ b/branches/hiv-test-date_fig-20/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13930" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13930" uniqueCount="1220">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T07:15:43+00:00</t>
+    <t>2023-02-10T13:48:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3792,6 +3792,9 @@
   </si>
   <si>
     <t>This profile is to record the Date when HIV test was done for a patient</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-hiv-test-done</t>
   </si>
   <si>
     <t>transferring-facility-encounter</t>
@@ -5105,7 +5108,7 @@
         <v>2</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="152">
@@ -5113,7 +5116,7 @@
         <v>4</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="153">
@@ -5129,7 +5132,7 @@
         <v>8</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="155">
@@ -5137,7 +5140,7 @@
         <v>10</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="156">
@@ -5191,7 +5194,7 @@
         <v>23</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="163">
@@ -37087,7 +37090,7 @@
       </c>
       <c r="Z303" s="2"/>
       <c r="AA303" t="s" s="2">
-        <v>1045</v>
+        <v>1214</v>
       </c>
       <c r="AB303" t="s" s="2">
         <v>75</v>
@@ -40932,7 +40935,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>759</v>
@@ -41035,7 +41038,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>764</v>
@@ -41140,7 +41143,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>765</v>
@@ -41243,7 +41246,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>766</v>
@@ -41348,7 +41351,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>767</v>
@@ -41453,7 +41456,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>768</v>
@@ -41558,7 +41561,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>769</v>
@@ -41663,7 +41666,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>770</v>
@@ -41768,7 +41771,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>774</v>
@@ -41875,7 +41878,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>775</v>
@@ -41978,7 +41981,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>778</v>
@@ -42083,7 +42086,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>784</v>
@@ -42188,7 +42191,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>788</v>
@@ -42291,7 +42294,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>789</v>
@@ -42396,7 +42399,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>790</v>
@@ -42503,7 +42506,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>791</v>
@@ -42606,7 +42609,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>792</v>
@@ -42709,7 +42712,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>795</v>
@@ -42812,7 +42815,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>801</v>
@@ -42915,7 +42918,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>804</v>
@@ -43018,7 +43021,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>805</v>
@@ -43123,7 +43126,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>806</v>
@@ -43230,7 +43233,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>807</v>
@@ -43333,7 +43336,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>810</v>
@@ -43436,7 +43439,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>813</v>
@@ -43541,7 +43544,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>819</v>
@@ -43644,7 +43647,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>824</v>
@@ -43747,7 +43750,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>828</v>
@@ -43852,7 +43855,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>832</v>
@@ -43955,7 +43958,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>836</v>
@@ -44058,7 +44061,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>841</v>
@@ -44161,7 +44164,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>844</v>
@@ -44264,7 +44267,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>845</v>
@@ -44369,7 +44372,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>846</v>
@@ -44476,7 +44479,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>847</v>
@@ -44581,7 +44584,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>852</v>
@@ -44684,7 +44687,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>855</v>
@@ -44787,7 +44790,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>859</v>
@@ -44890,7 +44893,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>863</v>
@@ -44995,7 +44998,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>867</v>
@@ -45100,7 +45103,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>872</v>
@@ -45205,7 +45208,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>879</v>
@@ -45310,7 +45313,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>882</v>
@@ -45413,7 +45416,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>885</v>
@@ -45516,7 +45519,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>886</v>
@@ -45621,7 +45624,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>887</v>
@@ -45728,7 +45731,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>888</v>
@@ -45833,7 +45836,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>893</v>
@@ -45936,7 +45939,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>898</v>
@@ -46039,7 +46042,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>902</v>
@@ -46144,7 +46147,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>907</v>
@@ -46249,7 +46252,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>911</v>
@@ -46352,7 +46355,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>912</v>
@@ -46457,7 +46460,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>913</v>
@@ -46564,7 +46567,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>914</v>
@@ -46667,7 +46670,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>917</v>
@@ -46770,7 +46773,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>921</v>
@@ -46873,7 +46876,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>926</v>
@@ -46976,7 +46979,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>931</v>
@@ -47083,7 +47086,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>938</v>
@@ -47186,7 +47189,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>943</v>
@@ -47289,7 +47292,7 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>948</v>
@@ -47392,7 +47395,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>951</v>
@@ -47495,7 +47498,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>956</v>
@@ -47600,7 +47603,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>960</v>
@@ -47703,7 +47706,7 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>961</v>
@@ -47808,7 +47811,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>962</v>
@@ -47915,7 +47918,7 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>963</v>
@@ -48018,7 +48021,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>967</v>
@@ -48123,7 +48126,7 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>973</v>
@@ -48228,7 +48231,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>979</v>
@@ -48331,7 +48334,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>982</v>
@@ -48434,7 +48437,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>985</v>

--- a/branches/hiv-test-date_fig-20/all-profiles.xlsx
+++ b/branches/hiv-test-date_fig-20/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:53:42+00:00</t>
+    <t>2023-02-10T13:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
